--- a/trunk/BaoCaoNhom/Tổng hợp các chức năng của crazylib.xlsx
+++ b/trunk/BaoCaoNhom/Tổng hợp các chức năng của crazylib.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="46">
   <si>
     <t>Tên chức năng</t>
   </si>
@@ -142,6 +142,18 @@
   </si>
   <si>
     <t>Xoá thông tin phân loại</t>
+  </si>
+  <si>
+    <t>Phân trang khi xem sách</t>
+  </si>
+  <si>
+    <t>Thống kê số lượt xem của 1 cuốn sách</t>
+  </si>
+  <si>
+    <t>Thống kê số đầu sách còn lại trong thư viện/tên sách</t>
+  </si>
+  <si>
+    <t>Nhận feedback từ người dùng</t>
   </si>
 </sst>
 </file>
@@ -482,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,20 +1013,56 @@
       <c r="A37">
         <v>36</v>
       </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
